--- a/biology/Zoologie/Corydalus_cornutus/Corydalus_cornutus.xlsx
+++ b/biology/Zoologie/Corydalus_cornutus/Corydalus_cornutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corydalus cornutus, la corydale cornue, est une espèce d'insectes mégaloptères de la famille des Corydalidae, de la sous-famille des Corydalinae, et du genre Corydalus. Elle se trouve dans l'est de l'Amérique du Nord dans les régions riches en rivières à courant rapide où sa larve aquatique se développe. Ces larves sont les prédateurs invertébrés des cours d'eau les plus virulents. Elles adorent faire leur nid dans les interstices de murs de briques. Les nids peuvent contenir plus de 1 000 larves. Elles sont utilisées par les pêcheurs comme appât[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corydalus cornutus, la corydale cornue, est une espèce d'insectes mégaloptères de la famille des Corydalidae, de la sous-famille des Corydalinae, et du genre Corydalus. Elle se trouve dans l'est de l'Amérique du Nord dans les régions riches en rivières à courant rapide où sa larve aquatique se développe. Ces larves sont les prédateurs invertébrés des cours d'eau les plus virulents. Elles adorent faire leur nid dans les interstices de murs de briques. Les nids peuvent contenir plus de 1 000 larves. Elles sont utilisées par les pêcheurs comme appât.
 </t>
         </is>
       </c>
@@ -511,17 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Corydalus cornutus a été décrite par le naturaliste suédois Carl von Linné, en 1758.
-Synonymie
-Corydalus cognatus, Hagen, 1861
-Corydalus crassicornis, McLachlan, 1867
-Corydalus inamabilis, McLachlan, 1867
-Corydalus texana, Banks, 1903
-Corydalus texanus, Banks, 1903
-Noms vernaculaires
-Corydale cornue en français, Eastern Dobsonfly en anglais.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Corydalus cornutus a été décrite par le naturaliste suédois Carl von Linné, en 1758.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Corydalus cognatus, Hagen, 1861
+Corydalus crassicornis, McLachlan, 1867
+Corydalus inamabilis, McLachlan, 1867
+Corydalus texana, Banks, 1903
+Corydalus texanus, Banks, 1903</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corydalus_cornutus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydalus_cornutus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Corydale cornue en français, Eastern Dobsonfly en anglais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corydalus_cornutus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydalus_cornutus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Œuf
